--- a/backend/Relatorios/pontuacao_entregadores.xlsx
+++ b/backend/Relatorios/pontuacao_entregadores.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,24 +421,585 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>FLORINDA GJA</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Luiz Alfredo</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>ASSIS</v>
+      </c>
+      <c r="B4">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>MARCIO DE CARVA</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>RENATA ALMEIDA</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Gabriel p. BERT</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>JOSE LEANDRO</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>WAGNER</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>CLAYTON</v>
+      </c>
+      <c r="B10">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Robison GJA</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>CAIO VINICIUS A</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Calebe Mad BERT</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>DANIEL ARAU GJA</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Wesley</v>
+      </c>
+      <c r="B15">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>LUCAS SIL. GJA</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>JOE CLAY</v>
+      </c>
+      <c r="B17">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Gustavo M-BERT</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>BRUNO ROD. GJA</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Jose Reinaldo</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Rafael GJA</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>JENIFFER CRISTI</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>LUIZ GUSTAVO DE</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Fyama godek GJA</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>thais agra BERT</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Fabricio ER GJA</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>PATRICIA REGINA</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Denisson BERT</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>GUSTAVO DA SILV</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>EMERSON DT GJA</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Wilian Pai BERT</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>FABIO C BERT</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Alta (&gt;97%)</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v xml:space="preserve">Hamilton </v>
+      </c>
+      <c r="B33">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Alan-BERTIOGA</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>0.8</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
         <v>esperando motorista</v>
       </c>
-      <c r="B2">
+      <c r="B35">
         <v>70</v>
       </c>
-      <c r="C2">
+      <c r="C35">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D35">
         <v>0</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E35" t="str">
         <v>Normal</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E35"/>
   </ignoredErrors>
 </worksheet>
 </file>